--- a/public/thamso_khaithac.xlsx
+++ b/public/thamso_khaithac.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KT_SL_TTD\ktsltd-minimal\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KT_SL_TTD\Mua_Webapp\rain-app\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="KhaibaoQuangtri" sheetId="1" r:id="rId1"/>
+    <sheet name="KhaibaoQuangtri" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KhaibaoQuangtri!$A$1:$F$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KhaibaoQuangtri!$F$1:$F$40</definedName>
   </definedNames>
   <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
@@ -27,12 +27,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>mucnuoc_oday</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="85">
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>hanquoc_mua</t>
+  </si>
+  <si>
+    <t>Đo Mưa TĐ Cẩm Ly</t>
+  </si>
+  <si>
+    <t>09003181</t>
+  </si>
+  <si>
+    <t>Đo Mưa TĐ Hóa Thanh</t>
+  </si>
+  <si>
+    <t>091401</t>
+  </si>
+  <si>
+    <t>Đo Mưa TĐ Thượng Hóa</t>
+  </si>
+  <si>
+    <t>091402</t>
+  </si>
+  <si>
+    <t>Đo Mưa TĐ Quảng Hợp</t>
+  </si>
+  <si>
+    <t>091403</t>
+  </si>
+  <si>
+    <t>Đo Mưa TĐ Sen Thủy</t>
+  </si>
+  <si>
+    <t>091404</t>
+  </si>
+  <si>
+    <t>Đo Mưa TĐ Hương Hóa QB</t>
+  </si>
+  <si>
+    <t>091405</t>
+  </si>
+  <si>
+    <t>Đo Mưa TĐ Phúc Trạch</t>
+  </si>
+  <si>
+    <t>091406</t>
+  </si>
+  <si>
+    <t>Đo Mưa TĐ Ba Lòng</t>
+  </si>
+  <si>
+    <t>091456</t>
+  </si>
+  <si>
+    <t>Đo Mưa TĐ Vĩnh Ô</t>
+  </si>
+  <si>
+    <t>091458</t>
+  </si>
+  <si>
+    <t>Đo Mưa TĐ Hướng Sơn</t>
+  </si>
+  <si>
+    <t>091459</t>
+  </si>
+  <si>
+    <t>Đo Mưa TĐ Hướng Hiệp</t>
+  </si>
+  <si>
+    <t>091460</t>
   </si>
   <si>
     <t>Thủy Văn TĐ Dakrong</t>
@@ -41,6 +107,9 @@
     <t>554500</t>
   </si>
   <si>
+    <t>mua_oday_thuyvan</t>
+  </si>
+  <si>
     <t>Thủy Văn TĐ Thạch Hãn</t>
   </si>
   <si>
@@ -86,6 +155,9 @@
     <t>Thủy Văn TĐ Đông Tâm</t>
   </si>
   <si>
+    <t>555300</t>
+  </si>
+  <si>
     <t>Thủy Văn TĐ Mai Hóa</t>
   </si>
   <si>
@@ -122,18 +194,60 @@
     <t>556100</t>
   </si>
   <si>
+    <t>mua_oday_khituong</t>
+  </si>
+  <si>
     <t>Thủy Văn TĐ Đồng Hới</t>
   </si>
   <si>
     <t>557600</t>
   </si>
   <si>
+    <t>mua_oday_domua</t>
+  </si>
+  <si>
+    <t>Đo Mưa TĐ Tà Rụt</t>
+  </si>
+  <si>
+    <t>559000</t>
+  </si>
+  <si>
+    <t>Đo Mưa TĐ Minh Hóa</t>
+  </si>
+  <si>
+    <t>559100</t>
+  </si>
+  <si>
     <t>Thủy Văn TĐ Trường Sơn</t>
   </si>
   <si>
     <t>559200</t>
   </si>
   <si>
+    <t>mua_wb5</t>
+  </si>
+  <si>
+    <t>Đo Mưa TĐ Việt Trung</t>
+  </si>
+  <si>
+    <t>ARG0000030</t>
+  </si>
+  <si>
+    <t>Đo Mưa TĐ Vĩnh Kim</t>
+  </si>
+  <si>
+    <t>ARG0000032</t>
+  </si>
+  <si>
+    <t>chuyendung_mua</t>
+  </si>
+  <si>
+    <t>Đo Mưa TĐ Hướng Linh - TĐ Quảng Trị</t>
+  </si>
+  <si>
+    <t>TDQT_MUA01QT</t>
+  </si>
+  <si>
     <t>tinhtong</t>
   </si>
   <si>
@@ -150,6 +264,24 @@
   </si>
   <si>
     <t>matram</t>
+  </si>
+  <si>
+    <t>Khí tượng TĐ Tuyên Hoá</t>
+  </si>
+  <si>
+    <t>Khí tượng TĐ Ba Đồn</t>
+  </si>
+  <si>
+    <t>Khí tượng TĐ Đồng Hới</t>
+  </si>
+  <si>
+    <t>Khí tượng TĐ Khe Sanh</t>
+  </si>
+  <si>
+    <t>Khí tượng TĐ Đông Hà</t>
+  </si>
+  <si>
+    <t>Khí tượng TĐ Cồn cỏ</t>
   </si>
 </sst>
 </file>
@@ -176,9 +308,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -238,23 +370,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -537,379 +680,818 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="6" customWidth="1"/>
+    <col min="5" max="6" width="21.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="7">
+        <v>60</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="7">
+        <v>60</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="7">
+        <v>60</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="7">
+        <v>60</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="7">
+        <v>60</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="7">
+        <v>60</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="7">
+        <v>60</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="7">
+        <v>60</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="7">
+        <v>60</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="7">
+        <v>60</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="8">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="7">
+        <v>60</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C13" s="8">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="7">
+        <v>60</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="7">
+        <v>60</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="7">
+        <v>60</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="7">
+        <v>60</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="7">
+        <v>60</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>555300</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C18" s="8">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="7">
+        <v>60</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="7">
+        <v>60</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>557500</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="9">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="7">
+        <v>60</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>557700</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="9">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="7">
+        <v>60</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>555600</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="9">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="7">
+        <v>60</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>557200</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="9">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="7">
+        <v>60</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>557300</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="9">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="7">
+        <v>60</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>557400</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="9">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="7">
+        <v>60</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7">
+        <v>60</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7">
+        <v>60</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7">
+        <v>60</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7">
+        <v>60</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="7">
+        <v>60</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="7">
+        <v>60</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7">
+        <v>60</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="8">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7">
+        <v>60</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>60</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="C34" s="8">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="7">
+        <v>60</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="8">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="7">
+        <v>60</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>60</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>60</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>60</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C36" s="8">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="7">
+        <v>60</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>60</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>60</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>60</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="B37" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>60</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>60</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="C37" s="8">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="7">
+        <v>60</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B38" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="2">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>60</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>60</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>60</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>60</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>60</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>60</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>60</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>60</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="C38" s="8">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="7">
+        <v>60</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="8">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="7">
+        <v>60</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="8">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="7">
+        <v>60</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>0</v>
       </c>
     </row>
